--- a/Claridad/archivos-cld/parametros_empresa.xlsx
+++ b/Claridad/archivos-cld/parametros_empresa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="horario" sheetId="1" state="visible" r:id="rId2"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="111">
   <si>
     <t xml:space="preserve">HORA</t>
   </si>
@@ -76,16 +76,16 @@
     <t xml:space="preserve">SERVICIOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Pedido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entrega Programada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cambio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consulta</t>
+    <t xml:space="preserve">Programar Pedido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entrega max. 2 dias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambio Producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Consulta en General</t>
   </si>
   <si>
     <t xml:space="preserve">ENCARGADOS</t>
@@ -139,193 +139,190 @@
     <t xml:space="preserve">LMN093</t>
   </si>
   <si>
+    <t xml:space="preserve">Encargado4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta4@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta5@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oriente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encargado7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta7@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occidente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oficina1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta9@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oficina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oficina2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dpdelta10@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">producto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hipoclorito – 3.800 cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hipoclorito – .20.000 cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminador de Olores – 500 cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminador de Olores – 2.000 cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eliminador de Olores – 3.800 cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desengrasante – 2.000 cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desengrasante – 3.800 cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desengrasante – 20.000 cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jabon Liquido Lavaplatos 2.000 cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jabon Liquido Lavaplatos 3.800 cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jabon Liquido Lavaplatos 20.000 cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jabon Liquido para Manos 2.000 cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jabon Liquido para Manos 3.800 cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jabon Liquido para Manos 20.000 cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detergente Liquido para Ropa 2.000 cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detergente Liquido para Ropa 3.800 cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Detergente Liquido para Ropa 20.000 cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jabon Liquido para Bebe -1.000 cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jabon Liquido para Bebe -2.000 cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jabon Liquido para Pisos 2.000 cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jabon Liquido para Pisos 3.800 cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jabon Liquido para Pisos 20.000 cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cera Autobrillante 2.000 cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cera Autobrillante 3.800 cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cera Autobrillante 20.000 cc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trapero Ref. 1.000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trapero Ref. Industrial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPRESA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URLSHEET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VERDADERO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.google.com/spreadsheets/d/18Xzq0almiDk740OyywLTtj3gGXLA20AFHLZaAqZzEGI/edit?gid=0#gid=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NOMBRE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NIT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRECCION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIUDAD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brillol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bogotá</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oficina Claridad</t>
+  </si>
+  <si>
     <t xml:space="preserve">Encargado2</t>
   </si>
   <si>
     <t xml:space="preserve">dpdelta2@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Encargado3</t>
-  </si>
-  <si>
     <t xml:space="preserve">dpdelta3@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Sur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encargado4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta4@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encargado5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta5@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oriente</t>
-  </si>
-  <si>
     <t xml:space="preserve">Encargado6</t>
   </si>
   <si>
     <t xml:space="preserve">dpdelta6@gmail.com</t>
   </si>
   <si>
-    <t xml:space="preserve">Encargado7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta7@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occidente</t>
+    <t xml:space="preserve">dpdelta20@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">Encargado8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta8@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encargado9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta9@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oficina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Encargado10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta10@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">producto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">valor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hipoclorito – 3.800 cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hipoclorito – .20.000 cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliminador de Olores – 500 cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliminador de Olores – 2.000 cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eliminador de Olores – 3.800 cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desengrasante – 2.000 cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desengrasante – 3.800 cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Desengrasante – 20.000 cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jabon Liquido Lavaplatos 2.000 cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jabon Liquido Lavaplatos 3.800 cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jabon Liquido Lavaplatos 20.000 cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jabon Liquido para Manos 2.000 cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jabon Liquido para Manos 3.800 cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jabon Liquido para Manos 20.000 cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detergente Liquido para Ropa 2.000 cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detergente Liquido para Ropa 3.800 cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Detergente Liquido para Ropa 20.000 cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jabon Liquido para Bebe -1.000 cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jabon Liquido para Bebe -2.000 cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jabon Liquido para Pisos 2.000 cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jabon Liquido para Pisos 3.800 cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jabon Liquido para Pisos 20.000 cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cera Autobrillante 2.000 cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cera Autobrillante 3.800 cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cera Autobrillante 20.000 cc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trapero Ref. 1.000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trapero Ref. Industrial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPRESA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URLSHEET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VERDADERO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://docs.google.com/spreadsheets/d/18Xzq0almiDk740OyywLTtj3gGXLA20AFHLZaAqZzEGI/edit?gid=0#gid=0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOMBRE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIRECCION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CIUDAD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Claridad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oficina Claridad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dpdelta20@gmail.com</t>
   </si>
   <si>
     <t xml:space="preserve">dpdelta21@gmail.com</t>
@@ -380,7 +377,7 @@
     <numFmt numFmtId="166" formatCode="#"/>
     <numFmt numFmtId="167" formatCode="#,###.00"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -409,12 +406,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -466,7 +457,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="11">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -483,7 +474,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -492,14 +483,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -669,21 +652,21 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -743,21 +726,21 @@
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -783,7 +766,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -814,24 +797,24 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -859,91 +842,91 @@
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="2" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="9" width="12.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="7" width="12.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="12.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="12.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="10" width="10.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="8" width="10.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="13.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="15.06"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>91</v>
+        <v>78</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="G1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="7" t="n">
+        <v>9999999999</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B2" s="9" t="n">
-        <v>9999999999</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="8" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F2" s="10" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B3" s="9" t="n">
+        <v>110</v>
+      </c>
+      <c r="B3" s="7" t="n">
         <v>9999999999</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="8" t="n">
+        <v>20000</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="F3" s="10" t="n">
-        <v>20000</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -964,8 +947,8 @@
   </sheetPr>
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1018,7 +1001,7 @@
   <dimension ref="A1:K1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1107,127 +1090,69 @@
         <v>36</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>3205511091</v>
+        <v>3200000003</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>3200000002</v>
+        <v>3200000004</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>3200000003</v>
-      </c>
-      <c r="D5" s="2" t="n">
-        <v>4</v>
+        <v>42</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>3200000004</v>
-      </c>
-      <c r="D6" s="2" t="n">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D7" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
+    </row>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1267,21 +1192,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="34.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="16.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="34.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="4" width="16.58"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="B2" s="6" t="n">
         <v>14000</v>
@@ -1289,7 +1214,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B3" s="6" t="n">
         <v>50000</v>
@@ -1297,55 +1222,55 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="7" t="n">
+        <v>53</v>
+      </c>
+      <c r="B4" s="4" t="n">
         <v>8000</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="7" t="n">
+        <v>54</v>
+      </c>
+      <c r="B5" s="4" t="n">
         <v>15000</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="B6" s="7" t="n">
+        <v>55</v>
+      </c>
+      <c r="B6" s="4" t="n">
         <v>25000</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="7" t="n">
+        <v>56</v>
+      </c>
+      <c r="B7" s="4" t="n">
         <v>15000</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="7" t="n">
+        <v>57</v>
+      </c>
+      <c r="B8" s="4" t="n">
         <v>25000</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="7" t="n">
+        <v>58</v>
+      </c>
+      <c r="B9" s="4" t="n">
         <v>100000</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B10" s="4" t="n">
         <v>15000</v>
@@ -1353,7 +1278,7 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B11" s="4" t="n">
         <v>25000</v>
@@ -1361,7 +1286,7 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B12" s="4" t="n">
         <v>100000</v>
@@ -1369,7 +1294,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B13" s="4" t="n">
         <v>15000</v>
@@ -1377,7 +1302,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B14" s="4" t="n">
         <v>25000</v>
@@ -1385,7 +1310,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B15" s="4" t="n">
         <v>95000</v>
@@ -1393,7 +1318,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B16" s="4" t="n">
         <v>17000</v>
@@ -1401,7 +1326,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="3" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B17" s="4" t="n">
         <v>29000</v>
@@ -1409,7 +1334,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B18" s="4" t="n">
         <v>125000</v>
@@ -1417,7 +1342,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="3" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="B19" s="4" t="n">
         <v>9000</v>
@@ -1425,7 +1350,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B20" s="4" t="n">
         <v>17000</v>
@@ -1433,7 +1358,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="3" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B21" s="4" t="n">
         <v>15000</v>
@@ -1441,7 +1366,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B22" s="4" t="n">
         <v>25000</v>
@@ -1449,7 +1374,7 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="3" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B23" s="4" t="n">
         <v>90000</v>
@@ -1457,7 +1382,7 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B24" s="4" t="n">
         <v>26000</v>
@@ -1465,7 +1390,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B25" s="4" t="n">
         <v>48000</v>
@@ -1473,7 +1398,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B26" s="4" t="n">
         <v>230000</v>
@@ -1481,7 +1406,7 @@
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="3" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B27" s="4" t="n">
         <v>21000</v>
@@ -1489,7 +1414,7 @@
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="3" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B28" s="4" t="n">
         <v>23000</v>
@@ -1525,18 +1450,18 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -1557,8 +1482,8 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1571,30 +1496,30 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B2" s="2" t="n">
         <v>987654321</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1621,7 +1546,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="14.65"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1636,22 +1561,22 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -1679,6 +1604,7 @@
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="3" width="15.06"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="11.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1720,10 +1646,10 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3205511091</v>
@@ -1787,25 +1713,25 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
